--- a/Data.xlsx
+++ b/Data.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA_SE347\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4440C9A-BCF7-4F02-BFFE-C2D78DA65807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64748D40-4A1D-4900-BE3F-230F03D13EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D622FCCF-CB66-44C5-B16A-5C006D5C9469}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="332">
   <si>
     <t>Tác giả</t>
   </si>
@@ -235,9 +235,6 @@
     <t>Bóp viết - Hộp bút</t>
   </si>
   <si>
-    <t>Bài - File hồ sơ</t>
-  </si>
-  <si>
     <t>Đồ bấm kim</t>
   </si>
   <si>
@@ -400,9 +397,6 @@
     <t>Nghệ Thuật Viết Quảng Cáo (Tái Bản 2025)</t>
   </si>
   <si>
-    <t>Tribes - Những Bộ Lạc: Marketing Thống Lĩnh Người Dùng</t>
-  </si>
-  <si>
     <t>Marketing Trong Kỷ Nguyên Số</t>
   </si>
   <si>
@@ -505,9 +499,6 @@
     <t>Tác giả: Stephen Markley; Nhà xuất bản: Simon and Schuster; Năm xuất bản: 2023; Ngôn ngữ: Tiếng Anh; Trọng lượng (gr): 910; Kích thước bao bì: 22.9 x 15.2 x 4 cm; Số trang: 896; Hình thức: Bìa mềm</t>
   </si>
   <si>
-    <t>Disney Kids Readers Level 6: Onward</t>
-  </si>
-  <si>
     <t>Tác giả: Marie Crook, Vessela Gasper, Hawys Morgan, Lynda Edwards, Rachel Wilson; Nhà xuất bản: Pearson; Năm xuất bản: 2021; Ngôn ngữ: Tiếng Anh; Trọng lượng (gr): 150; Kích thước bao bì: 23 x 18.7 x 0.5 cm; Số trang: 48; Hình thức: Bìa mềm</t>
   </si>
   <si>
@@ -638,10 +629,6 @@
   </si>
   <si>
     <t>Thương hiệu: Shiny; Xuất xứ thương hiệu: Thương Hiệu Đài loan; Nơi Gia Công &amp; Sản Xuất: Việt Nam; Chất liệu: Nhựa; Màu sắc: Đỏ; Màu mực: Đỏ; Trọng lượng (gr): 45; Kích thước bao bì: 9 x 3.4 x 3 cm</t>
-  </si>
-  <si>
-    <t>Tác phẩm là dòng hồi ức của người lính về chiến tranh và thời tuổi trẻ đã trải qua trong bom đạn. Đólàlòng tiếc thương vô hạn đối với những người cùng thế hệ với mình đã nằm xuống, là ám ảnh về thân phận con người trong thời buổi loạn ly, và thông qua thân phận là sự tái hiện đầy xót xavề quá khứ, những suy tư nghiền ngẫm về con đường dấn thân của cả một thế hệ sinh ra trong chiến tranh. Bao trùm lên tất cả, là nỗi buồn sâu xa gắn với từng mảnh đời riêng. Tác phẩm đã bước ra khỏi lối mòn về lòng tự hào dân tộc cùng những chiến công và vinh quang tập thể để nêu lên thông điệp về sự ghê tởm, về tính chất hủy diệt của chiến tranh đối với con người.
-Vào thời điểm ra đời cuối thập niên 1980,“Nỗi buồn chiến tranh” có thểđược xem là tác phẩm văn học Việt Nam hiện đại đầu tiên viết về chiến tranh có cái nhìn khác với quan niệm truyền thống, khẳng định mạnh mẽ vai trò cá nhân trong xã hội, quyền sống, hạnh phúc và đau khổ của con người với tư cách một cá thể độc lập. Tiểu thuyết nhận được giải thưởng Hội Nhà văn ViệtNamnăm 1991.</t>
   </si>
   <si>
     <t>Hà Thanh Hải Yến - Ngang Qua Ngõ Nhỏ Bình An
@@ -1363,6 +1350,211 @@
 Ellie's grandpa Melvin is a world-renowned scientist . . . in the body of a fourteen-year-old boy. His feet stink, and he eats everything in the refrigerator--and Ellie is so happy to have him around. Grandpa may not exactly fit in at middle school, but he certainly keeps things interesting. When he and Ellie team up for the county science fair, no one realizes just how groundbreaking their experiment will be. The formula for eternal youth may be within their reach! And when Ellie's cat, Jonas Salk, gets sick, the stakes become even higher. But is the key to eternal life really the key to happiness? Sometimes even the most careful experiments yield unexpected--and wonderful--results. 
 </t>
   </si>
+  <si>
+    <t>D:\DA_SE347\data_img\gallery\ho-diep-va-kinh-ngu-1.jpg; D:\DA_SE347\data_img\gallery\ho-diep-va-kinh-ngu-2.jpg; D:\DA_SE347\data_img\gallery\ho-diep-va-kinh-ngu-3.jpg; D:\DA_SE347\data_img\gallery\ho-diep-va-kinh-ngu-4.jpg; D:\DA_SE347\data_img\gallery\ho-diep-va-kinh-ngu-5.jpg; D:\DA_SE347\data_img\gallery\ho-diep-va-kinh-ngu-6.jpg; D:\DA_SE347\data_img\gallery\ho-diep-va-kinh-ngu-7.jpg; D:\DA_SE347\data_img\gallery\ho-diep-va-kinh-ngu-8.jpg; D:\DA_SE347\data_img\gallery\ho-diep-va-kinh-ngu-9.jpg; D:\DA_SE347\data_img\gallery\ho-diep-va-kinh-ngu-10.jpg</t>
+  </si>
+  <si>
+    <t>Tribes - Những Bộ Lạc Marketing Thống Lĩnh Người Dùng</t>
+  </si>
+  <si>
+    <t>Disney Kids Readers Level 6 Onward</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\hồ-điệp-và-kình-ngư.jpg</t>
+  </si>
+  <si>
+    <t>Tác phẩm là dòng hồi ức của người lính về chiến tranh và thời tuổi trẻ đã trải qua trong bom đạn. Đó là lòng tiếc thương vô hạn đối với những người cùng thế hệ với mình đã nằm xuống, là ám ảnh về thân phận con người trong thời buổi loạn ly, và thông qua thân phận là sự tái hiện đầy xót xavề quá khứ, những suy tư nghiền ngẫm về con đường dấn thân của cả một thế hệ sinh ra trong chiến tranh. Bao trùm lên tất cả, là nỗi buồn sâu xa gắn với từng mảnh đời riêng. Tác phẩm đã bước ra khỏi lối mòn về lòng tự hào dân tộc cùng những chiến công và vinh quang tập thể để nêu lên thông điệp về sự ghê tởm, về tính chất hủy diệt của chiến tranh đối với con người.
+Vào thời điểm ra đời cuối thập niên 1980,“Nỗi buồn chiến tranh” có thểđược xem là tác phẩm văn học Việt Nam hiện đại đầu tiên viết về chiến tranh có cái nhìn khác với quan niệm truyền thống, khẳng định mạnh mẽ vai trò cá nhân trong xã hội, quyền sống, hạnh phúc và đau khổ của con người với tư cách một cá thể độc lập. Tiểu thuyết nhận được giải thưởng Hội Nhà văn ViệtNamnăm 1991.</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\nỗi-buồn-chiến-tranh-(tái-bản-2022).jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\hà-thanh-hải-yến---ngang-qua-ngõ-nhỏ-bình-an.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\người-bà-tài-giỏi-vùng-saga.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\bến-xe-(tái-bản-2020).jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\cô-bé-hàng-xóm-và-bốn-viên-kẹo.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\người-đàn-ông-mang-tên-ove-(tái-bản).jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\nhà-giả-kim-(tái-bản-2020).jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\cho-tôi-xin-một-vé-đi-tuổi-thơ-(tái-bản-2023).jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\cánh-đồng-bất tận-(tái-bản-2025).jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\vừa-nhắm-mắt-vừa-mở-cửa-sổ-(tái-bản-2022).jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\hương-rừng-cà-mau.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\tôi-là-một-con-lừa-(tái-bản-2023).jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\quá-trẻ-để-chết---hành-trình-nước-mỹ.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\kiêu-hãnh-và-định-kiến-(tái-bản-2024).jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\những-người-khốn-khổ-(bộ-3-cuốn).jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\ông-già-và-biển-cả.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\lãnh-đạo-bằng-sức-mạnh-trí-tuệ-cảm-xúc.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\dịch-vụ-vượt-mong-đợi---unreasonable-hospitality.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\tinh-hoa-quản-trị-nguồn-lực-huawei.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\người-giàu-có-nhất-thành-babylon.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\thấu-hiểu-tiếp-thị-từ-a-đến-z---80-khái-niệm-nhà-quản-lý-cần-biết-(tái-bản-2020).jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\nghệ-thuật-viết-quảng-cáo-(tái-bản-2025).jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\tribes---những-bộ-lạc-marketing-thống-lĩnh-người-dùng.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\marketing-trong-kỷ-nguyên-số.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\không-đến-một-(bìa-cam).jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\khởi-nghiệp-tinh-gọn---the-lean-startup-(tái-bản-2021).jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\atomic-habits---thay-đổi-tí-hon-hiệu-quả-bất-ngờ-(tái-bản-2023).jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\khéo-ăn-nói-sẽ-có-được-thiên-hạ-(tái-bản-2022).jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\trò-chuyện-với-nỗi-đau-và-vượt-qua-tổn-thương.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\vì-sao-càng-yêu-lại-càng-cô-đơn.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\đắc-nhân-tâm-(tái-bản-2021).jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\doraemon---movie-story-màu---nobita-và-đảo-giấu-vàng.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\bách-khoa-trí-tuệ-về-khám-phá-thế-giới-cho-trẻ-em---thiên-văn-học.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\màu-của-tết---kể-chuyện-tết-xưa-tô-màu-tết-nay.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\the-fault-in-our-stars.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\the-two-towers-.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\the-deluge---tephen-markley.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\disney-kids-readers-level-6-onward.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\harry-potter-and-the-philosopher's-stone.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\my-best-book-of-whales-and-dolphins.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\wealth-of-nations.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\you-are-a-badass-at-making-money.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\glossy.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\bút-bi-bấm-0.7-mm----bitex-b-60---mực-đen.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\bút-bi-bấm-0.7-mm----bitex-b-60---mực-xanh.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\bút-chì-lục-giác-2b---deli-ec001-2b---màu-xanh-dương.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\bút-chì-bấm-bium-protection-0.5-mm---morning-glory-32000-20572---màu-trắng.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\bút-máy---snowhite-fp20---mực-xanh-nhạt.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\bút-máy---snowhite-fp20---mực-tím.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\bút-nhớ-dòng---deli-ss625---màu-vàng.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\gôm-tẩy-đen-nhỏ---deli-eh316.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\chuốt-chì-doms-regular3424---màu-xanh-lá.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\thước-thẳng-30-cm-c-30.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\túi-đựng-bút-liquid-cat-có-khóa-kéo---elephant---mẫu-3.jpg</t>
+  </si>
+  <si>
+    <t>Bìa - File hồ sơ</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\bìa-kẹp-tài-liệu-a4---elephant-mf01---màu-xanh-dương.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\dập-ghim-10-deli-271---mẫu-2.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\hộp-12-kẹp-giấy-15mm----deli-ez66.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\mực-dấu-shiny-s62---màu-đỏ.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\bộ-tranh-xếp-hình-gỗ-dán-tường-bản-đồ-việt-nam---150-x-100-cm---bách-mộc.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\đất-nặn-6-màu-100g-st-100-6.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\bộ-lắp-ráp-bản-đồ-việt-nam-34-tỉnh---liên-hiệp-thành-urhbdvn.34.jpg</t>
+  </si>
+  <si>
+    <t>D:\DA_SE347\data_img\cover\đồ-chơi-mô-hình-diy-xóm-nhà-sàn---thế-giới-tí-hon-ns06.jpg</t>
+  </si>
 </sst>
 </file>
 
@@ -1404,24 +1596,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1758,6 +1947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D958D21C-9358-4DD5-AD52-628A7A998558}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1876,10 +2066,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BA33AB-0102-484D-A472-211D7A48B0CA}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1897,7 +2088,7 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1905,7 +2096,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1913,7 +2104,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1921,7 +2112,7 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2254,7 +2445,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>323</v>
       </c>
       <c r="D46" t="s">
         <v>56</v>
@@ -2262,7 +2453,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D47" t="s">
         <v>56</v>
@@ -2270,7 +2461,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D48" t="s">
         <v>56</v>
@@ -2278,7 +2469,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D49" t="s">
         <v>56</v>
@@ -2286,18 +2477,18 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
       </c>
       <c r="E50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D51" t="s">
         <v>23</v>
@@ -2305,34 +2496,34 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2342,10 +2533,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE6A501-BE5F-43E8-95EA-93B5BCC2C50A}">
-  <dimension ref="A1:G63"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="E9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2355,1269 +2547,1462 @@
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="95" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
+    <col min="6" max="6" width="93" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="210" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="255.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="2">
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1">
         <v>155000</v>
       </c>
-      <c r="D1" s="2">
-        <v>100</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="1">
+        <v>100</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1">
+        <v>130000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="1">
+        <v>196000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>100</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="1">
+        <v>120000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>100</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="1">
+        <v>76000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>100</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="1">
+        <v>115000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="1">
+        <v>160000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="1">
+        <v>79000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="1">
+        <v>85000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>100</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="1">
+        <v>110000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>100</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1">
+        <v>75000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>100</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="228" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="1">
+        <v>165000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>100</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="1">
+        <v>80000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="1">
+        <v>90000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>100</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="256.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="1">
+        <v>436000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>100</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="1">
+        <v>50000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>100</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="1">
+        <v>150000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="1">
+        <v>120000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>100</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="256.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="1">
+        <v>120000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>100</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="256.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>100</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="327.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="1">
+        <v>110000</v>
+      </c>
+      <c r="D22" s="1">
+        <v>100</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="1">
+        <v>90000</v>
+      </c>
+      <c r="D23" s="1">
+        <v>100</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="1">
+        <v>60000</v>
+      </c>
+      <c r="D24" s="1">
+        <v>100</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="1">
+        <v>90000</v>
+      </c>
+      <c r="D25" s="1">
+        <v>100</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="1">
+        <v>90000</v>
+      </c>
+      <c r="D26" s="1">
+        <v>100</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="1">
+        <v>130000</v>
+      </c>
+      <c r="D27" s="1">
+        <v>100</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="1">
+        <v>150000</v>
+      </c>
+      <c r="D28" s="1">
+        <v>100</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D29" s="1">
+        <v>100</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="1">
+        <v>120000</v>
+      </c>
+      <c r="D30" s="1">
+        <v>100</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="1">
+        <v>120000</v>
+      </c>
+      <c r="D31" s="1">
+        <v>100</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="1">
+        <v>60000</v>
+      </c>
+      <c r="D32" s="1">
+        <v>100</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D33" s="1">
+        <v>100</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D34" s="1">
+        <v>100</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="1">
+        <v>40000</v>
+      </c>
+      <c r="D35" s="1">
+        <v>100</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="1">
+        <v>230000</v>
+      </c>
+      <c r="D36" s="1">
+        <v>100</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="1">
+        <v>200000</v>
+      </c>
+      <c r="D37" s="1">
+        <v>100</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="1">
+        <v>350000</v>
+      </c>
+      <c r="D38" s="1">
+        <v>100</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C39" s="1">
+        <v>140000</v>
+      </c>
+      <c r="D39" s="1">
+        <v>100</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" s="1">
+        <v>250000</v>
+      </c>
+      <c r="D40" s="1">
+        <v>100</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="1">
+        <v>130000</v>
+      </c>
+      <c r="D41" s="1">
+        <v>100</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="1">
+        <v>200000</v>
+      </c>
+      <c r="D42" s="1">
+        <v>100</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="1">
+        <v>300000</v>
+      </c>
+      <c r="D43" s="1">
+        <v>100</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="342" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C44" s="1">
+        <v>400000</v>
+      </c>
+      <c r="D44" s="1">
+        <v>100</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="256.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="1">
+        <v>6000</v>
+      </c>
+      <c r="D45" s="1">
+        <v>100</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="256.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="1">
+        <v>6000</v>
+      </c>
+      <c r="D46" s="1">
+        <v>100</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D47" s="1">
+        <v>100</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="1">
+        <v>40000</v>
+      </c>
+      <c r="D48" s="1">
+        <v>100</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="1">
+        <v>12000</v>
+      </c>
+      <c r="D49" s="1">
+        <v>100</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="1">
+        <v>12000</v>
+      </c>
+      <c r="D50" s="1">
+        <v>100</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" s="1">
+        <v>14000</v>
+      </c>
+      <c r="D51" s="1">
+        <v>100</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="1">
+        <v>4500</v>
+      </c>
+      <c r="D52" s="1">
+        <v>100</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D53" s="1">
+        <v>100</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C54" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D54" s="1">
+        <v>100</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" s="1">
+        <v>13500</v>
+      </c>
+      <c r="D55" s="1">
+        <v>100</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="1">
+        <v>12500</v>
+      </c>
+      <c r="D56" s="1">
+        <v>100</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C57" s="1">
+        <v>44000</v>
+      </c>
+      <c r="D57" s="1">
+        <v>100</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D58" s="1">
+        <v>100</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C59" s="1">
+        <v>45000</v>
+      </c>
+      <c r="D59" s="1">
+        <v>100</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="228" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" s="1">
+        <v>230000</v>
+      </c>
+      <c r="D60" s="1">
+        <v>100</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C61" s="1">
+        <v>9000</v>
+      </c>
+      <c r="D61" s="1">
+        <v>100</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C62" s="1">
+        <v>230000</v>
+      </c>
+      <c r="D62" s="1">
+        <v>100</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" s="1">
+        <v>270000</v>
+      </c>
+      <c r="D63" s="1">
+        <v>100</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="2">
-        <v>130000</v>
-      </c>
-      <c r="D2" s="2">
-        <v>100</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="2">
-        <v>196000</v>
-      </c>
-      <c r="D3" s="2">
-        <v>100</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="2">
-        <v>120000</v>
-      </c>
-      <c r="D4" s="2">
-        <v>100</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="2">
-        <v>76000</v>
-      </c>
-      <c r="D5" s="2">
-        <v>100</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="2">
-        <v>115000</v>
-      </c>
-      <c r="D6" s="2">
-        <v>100</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="2">
-        <v>160000</v>
-      </c>
-      <c r="D7" s="2">
-        <v>100</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="2">
-        <v>79000</v>
-      </c>
-      <c r="D8" s="2">
-        <v>100</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="2">
-        <v>85000</v>
-      </c>
-      <c r="D9" s="2">
-        <v>100</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="2">
-        <v>110000</v>
-      </c>
-      <c r="D10" s="2">
-        <v>100</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="2">
-        <v>75000</v>
-      </c>
-      <c r="D11" s="2">
-        <v>100</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="2">
-        <v>165000</v>
-      </c>
-      <c r="D12" s="2">
-        <v>100</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="2">
-        <v>80000</v>
-      </c>
-      <c r="D13" s="2">
-        <v>100</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="2">
-        <v>100000</v>
-      </c>
-      <c r="D14" s="2">
-        <v>100</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="2">
-        <v>90000</v>
-      </c>
-      <c r="D15" s="2">
-        <v>100</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="256.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="2">
-        <v>436000</v>
-      </c>
-      <c r="D16" s="2">
-        <v>100</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="2">
-        <v>50000</v>
-      </c>
-      <c r="D17" s="2">
-        <v>100</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="2">
-        <v>150000</v>
-      </c>
-      <c r="D18" s="2">
-        <v>100</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="171" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="2">
-        <v>120000</v>
-      </c>
-      <c r="D19" s="2">
-        <v>100</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="2">
-        <v>120000</v>
-      </c>
-      <c r="D20" s="2">
-        <v>100</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="2">
-        <v>100000</v>
-      </c>
-      <c r="D21" s="2">
-        <v>100</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="327.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="2">
-        <v>110000</v>
-      </c>
-      <c r="D22" s="2">
-        <v>100</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="2">
-        <v>90000</v>
-      </c>
-      <c r="D23" s="2">
-        <v>100</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="2">
-        <v>60000</v>
-      </c>
-      <c r="D24" s="2">
-        <v>100</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="2">
-        <v>90000</v>
-      </c>
-      <c r="D25" s="2">
-        <v>100</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="256.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="2">
-        <v>90000</v>
-      </c>
-      <c r="D26" s="2">
-        <v>100</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="2">
-        <v>130000</v>
-      </c>
-      <c r="D27" s="2">
-        <v>100</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="2">
-        <v>150000</v>
-      </c>
-      <c r="D28" s="2">
-        <v>100</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="2">
-        <v>100000</v>
-      </c>
-      <c r="D29" s="2">
-        <v>100</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="171" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="2">
-        <v>120000</v>
-      </c>
-      <c r="D30" s="2">
-        <v>100</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" s="2">
-        <v>120000</v>
-      </c>
-      <c r="D31" s="2">
-        <v>100</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" s="2">
-        <v>60000</v>
-      </c>
-      <c r="D32" s="2">
-        <v>100</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C33" s="2">
-        <v>30000</v>
-      </c>
-      <c r="D33" s="2">
-        <v>100</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="2">
-        <v>30000</v>
-      </c>
-      <c r="D34" s="2">
-        <v>100</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" s="2">
-        <v>40000</v>
-      </c>
-      <c r="D35" s="2">
-        <v>100</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C36" s="2">
-        <v>230000</v>
-      </c>
-      <c r="D36" s="2">
-        <v>100</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="171" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C37" s="2">
-        <v>200000</v>
-      </c>
-      <c r="D37" s="2">
-        <v>100</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="270.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C38" s="2">
-        <v>350000</v>
-      </c>
-      <c r="D38" s="2">
-        <v>100</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="299.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C39" s="2">
-        <v>140000</v>
-      </c>
-      <c r="D39" s="2">
-        <v>100</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C40" s="2">
-        <v>250000</v>
-      </c>
-      <c r="D40" s="2">
-        <v>100</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C41" s="2">
-        <v>130000</v>
-      </c>
-      <c r="D41" s="2">
-        <v>100</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C42" s="2">
-        <v>200000</v>
-      </c>
-      <c r="D42" s="2">
-        <v>100</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C43" s="2">
-        <v>300000</v>
-      </c>
-      <c r="D43" s="2">
-        <v>100</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="327.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C44" s="2">
-        <v>400000</v>
-      </c>
-      <c r="D44" s="2">
-        <v>100</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C45" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D45" s="2">
-        <v>100</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C46" s="2">
-        <v>6000</v>
-      </c>
-      <c r="D46" s="2">
-        <v>100</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C47" s="2">
-        <v>5000</v>
-      </c>
-      <c r="D47" s="2">
-        <v>100</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C48" s="2">
-        <v>40000</v>
-      </c>
-      <c r="D48" s="2">
-        <v>100</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C49" s="2">
-        <v>12000</v>
-      </c>
-      <c r="D49" s="2">
-        <v>100</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C50" s="2">
-        <v>12000</v>
-      </c>
-      <c r="D50" s="2">
-        <v>100</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="114" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C51" s="2">
-        <v>14000</v>
-      </c>
-      <c r="D51" s="2">
-        <v>100</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C52" s="2">
-        <v>4500</v>
-      </c>
-      <c r="D52" s="2">
-        <v>100</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C53" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D53" s="2">
-        <v>100</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C54" s="2">
-        <v>5000</v>
-      </c>
-      <c r="D54" s="2">
-        <v>100</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C55" s="2">
-        <v>13500</v>
-      </c>
-      <c r="D55" s="2">
-        <v>100</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C56" s="2">
-        <v>12500</v>
-      </c>
-      <c r="D56" s="2">
-        <v>100</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C57" s="2">
-        <v>44000</v>
-      </c>
-      <c r="D57" s="2">
-        <v>100</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C58" s="2">
-        <v>7000</v>
-      </c>
-      <c r="D58" s="2">
-        <v>100</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C59" s="2">
-        <v>45000</v>
-      </c>
-      <c r="D59" s="2">
-        <v>100</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="228" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C60" s="2">
-        <v>230000</v>
-      </c>
-      <c r="D60" s="2">
-        <v>100</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C61" s="2">
-        <v>9000</v>
-      </c>
-      <c r="D61" s="2">
-        <v>100</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C62" s="2">
-        <v>230000</v>
-      </c>
-      <c r="D62" s="2">
-        <v>100</v>
-      </c>
-      <c r="E62" s="3" t="s">
+      <c r="F63" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C63" s="2">
-        <v>270000</v>
-      </c>
-      <c r="D63" s="2">
-        <v>100</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>
